--- a/templates/contact_list.xlsx
+++ b/templates/contact_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,18 +545,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ashantia</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Harris</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mercedes</t>
-        </is>
+          <t>Fuller</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -572,89 +570,91 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reinier</t>
+          <t>Ashantia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Voigt</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+          <t>Harris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mercedes</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Headquarters</t>
+          <t>eCommerce</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>eCommerce Cust Serv Associate</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Reinier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Haws</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Daren</t>
-        </is>
+          <t>Voigt</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Finance &amp; Accounting</t>
+          <t>Headquarters</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Controller</t>
+          <t>CEO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Levins</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+          <t>Haws</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Daren</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Finance &amp; Accounting</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Director New Store Expansion</t>
+          <t>Controller</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>George</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rowberry</t>
+          <t>Levins</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -662,24 +662,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Finance &amp; Accounting</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Director New Store Expansion</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Weaver</t>
+          <t>Rowberry</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -687,24 +687,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Finance &amp; Accounting</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Operations Coordinator</t>
+          <t>Accounting</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dakota</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chase</t>
+          <t>Weaver</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -724,12 +724,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Quilan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Whitson</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -737,7 +737,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Purchasing/Operations</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -749,12 +749,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tamara</t>
+          <t>Dakota</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Todd</t>
+          <t>Chase</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -762,24 +762,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>807 Clearwater Store Manager</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operations Coordinator</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Miranda</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Olvera</t>
+          <t>White</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -787,7 +787,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>200 Lubbock - Retail</t>
+          <t>807 Clearwater - Manager</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -799,22 +799,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wainscott</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>205 Rogers Store Manager</t>
+          <t>308 Cincinnati - Retail</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -826,22 +826,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Miranda</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mitchell</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Carlos</t>
-        </is>
+          <t>Olvera</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>308 Cincinnati - Retail</t>
+          <t>200 Lubbock - Retail</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -853,12 +851,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Shannon</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gonzales</t>
+          <t>Drabant</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -866,7 +864,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>206 Katy Store Manager</t>
+          <t>316 Louisville - Manager</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -878,12 +876,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Todd</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Simmons</t>
+          <t>Cook</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -891,7 +889,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>305 Ft. Wayne - Retail</t>
+          <t>404 Missoula - Manager</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -903,12 +901,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Alvarez</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -916,7 +914,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106 Foothill - Retail</t>
+          <t>714 Orlando - Manager</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -928,12 +926,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Todd</t>
+          <t>Rodney</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cook</t>
+          <t>Reese</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -941,7 +939,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>404 Missoula Store Manager</t>
+          <t>801 Destin - Retail</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -953,12 +951,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Blake</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bekalowicz</t>
+          <t>Porting</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -966,7 +964,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>704 Charlottesville - Retail</t>
+          <t>510 Springfield MO - Manager</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -978,20 +976,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kyler</t>
+          <t>Jay</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hooper</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>208 San Marcos Store Manager</t>
+          <t>317 Asheville - Manager</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1003,22 +1003,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Karriann</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Wainscott</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Karriann</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>513 Wichita Store Manager</t>
+          <t>205 Rogers - Manager</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1030,12 +1030,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dedrick</t>
+          <t>Blake</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Barnett</t>
+          <t>Bekalowicz</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1043,24 +1043,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>313 Vanderbilt - Retail</t>
+          <t>704 Charlottesville - Retail</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tucker</t>
+          <t>Zoe</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gibbons</t>
+          <t>Trollinger</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1068,49 +1068,51 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>419 Corvallis - Retail</t>
+          <t>708 Norcross - Manager</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Isaac</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hernandez</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
+          <t>Brannon</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Beau</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>419 Corvallis - Retail</t>
+          <t>eCommerce</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>eCommerce Product Manager</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>William</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hinojosa</t>
+          <t>Bright</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1118,24 +1120,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>208 San Marcos - Retail</t>
+          <t>804 Jacksonville - Retail</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Irwin</t>
+          <t>Batts</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1143,24 +1145,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>421 Hillsboro - Retail</t>
+          <t>807 Clearwater - Retail</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Dylan</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pavlacky</t>
+          <t>Duarte</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1168,24 +1170,24 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>421 Hillsboro - Retail</t>
+          <t>805 Orlando (University) - Manager</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Lawrence</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Brannon</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1193,32 +1195,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>eCommerce</t>
+          <t>305 Ft. Wayne - Retail</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>eCommerce Product Manager</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Batts</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
+          <t>Weems</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>807 Clearwater Retail</t>
+          <t>420 Eugene - Retail</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1230,12 +1234,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bickel</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1243,7 +1247,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>706 Marietta-West Cobb - Retail</t>
+          <t>602 Columbia - Retail</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1255,12 +1259,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Maxwell</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Howard</t>
+          <t>Newlund</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1268,7 +1272,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>708 Norcross - Retail</t>
+          <t>410 Bend - Retail</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1280,22 +1284,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dustin</t>
+          <t>Blanca Maria</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hopkins</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Skipp</t>
-        </is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>410 Bend - Retail</t>
+          <t>101 Orem - Retail</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1307,12 +1309,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Isaac</t>
+          <t>Dedrick</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Doughty</t>
+          <t>Barnett</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1320,24 +1322,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>419 Corvallis - Retail</t>
+          <t>313 Vanderbilt - Retail</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Stawicki</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1345,24 +1347,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>208 San Marcos - Retail</t>
+          <t>419 Corvallis - Retail</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Keith</t>
+          <t>Tucker</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Oesterreich</t>
+          <t>Gibbons</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1370,51 +1372,49 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>710 Forsyth - Retail</t>
+          <t>419 Corvallis - Retail</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Schwemmer</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Brian</t>
-        </is>
+          <t>Hinojosa</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IT Team</t>
+          <t>208 San Marcos - Retail</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>IT Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bodie</t>
+          <t>Pavlacky</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1422,24 +1422,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>305 Ft. Wayne - Retail</t>
+          <t>421 Hillsboro - Retail</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Luna</t>
+          <t>Irwin</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1447,24 +1447,24 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>801 Destin - Retail</t>
+          <t>421 Hillsboro - Retail</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Nathaniel</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Albea</t>
+          <t>Barber</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1484,12 +1484,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tierney</t>
+          <t>Schwemmer</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1497,24 +1497,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>105 St. George - Retail</t>
+          <t>IT Team</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>IT Senior Technician</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Myers</t>
+          <t>McDaniel</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1522,24 +1522,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>105 St. George - Retail</t>
+          <t>316 Louisville - Retail</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Simmons</t>
+          <t>Plantz</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1547,51 +1547,49 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>802 Tallahassee Retail</t>
+          <t>308 Cincinnati - Retail</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Andres</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>O'Steen-Mann</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Gabe</t>
-        </is>
+          <t>Cantillo</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>802 Tallahassee Retail</t>
+          <t>807 Clearwater - Manager</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Isaac</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Milne</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1599,28 +1597,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>802 Tallahassee Retail</t>
+          <t>802 Tallahassee - Retail</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Bethany</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Paquin</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
+          <t>Sorenson</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Bryan</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pierce</t>
+          <t>Moaf</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Luccas</t>
+          <t>Caldwell</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1674,24 +1674,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>315 Johnson City - Retail</t>
+          <t>404 Missoula - Retail</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kellie</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cooke</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>406 Bozeman - Retail</t>
+          <t>803 Tuscaloosa - Retail</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1711,12 +1711,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lawrence</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tate</t>
+          <t>Kersey</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>604 Myrtle Beach Retail</t>
+          <t>421 Hillsboro - Retail</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1736,12 +1736,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Chandler</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Michel</t>
+          <t>Strean</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>513 Wichita - Retail</t>
+          <t>713 St. Simons - Retail</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1761,22 +1761,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kinsey</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pase</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Kinsey</t>
-        </is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>207 Waco - Retail</t>
+          <t>105 St. George - Retail</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1788,12 +1786,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Tomas</t>
+          <t>Spencer</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ramirez</t>
+          <t>Ashkin</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1801,7 +1799,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>206 Katy - Retail</t>
+          <t>105 St. George - Retail</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1813,22 +1811,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jacely</t>
+          <t>Dugan</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cano</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Ace</t>
-        </is>
+          <t>Murphy</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>316 Louisville - Retail</t>
+          <t>717 Gainesville - Retail</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1840,12 +1836,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Rosivet</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Hoffmann</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1853,7 +1849,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>308 Cincinnati - Retail</t>
+          <t>714 Orlando - Retail</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1865,12 +1861,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Marshal</t>
+          <t>Kyler</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Massey</t>
+          <t>Hooper</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1878,32 +1874,34 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>200 Lubbock - Retail</t>
+          <t>208 San Marcos - Manager</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cameron</t>
+          <t>Karriann</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sears</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
+          <t>Graham</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Karriann</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>803 Tuscaloosa Store Manager</t>
+          <t>513 Wichita - Manager</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1915,12 +1913,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Caleb</t>
+          <t>Dakota</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Griggs</t>
+          <t>Floyd</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1928,7 +1926,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>313 Vanderbilt - Retail</t>
+          <t>301 Evansville - Manager</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1940,12 +1938,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lynn</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Harrington</t>
+          <t>Gonzales</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1953,7 +1951,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>406 Bozeman - Retail</t>
+          <t>206 Katy - Manager</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1965,12 +1963,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Phillip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Trollinger</t>
+          <t>Bowers</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1978,7 +1976,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>708 Norcross Store Manager</t>
+          <t>314 Chattanooga - Manager</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1990,12 +1988,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Octavio</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Kranwinkle</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2003,7 +2001,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>001 Simply EV Store Manager</t>
+          <t>421 Hillsboro - Manager</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2015,22 +2013,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Keith</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Allen</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Allen</t>
-        </is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>604 Myrtle Beach Retail</t>
+          <t>805 Orlando (University) - Manager</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2042,12 +2038,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Drabant</t>
+          <t>Albea</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2055,24 +2051,24 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>316 Louisville Store Manager</t>
+          <t>713 St. Simons - Retail</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Chase</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Rogers</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2080,24 +2076,24 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>401 Idaho Falls - Retail</t>
+          <t>105 St. George - Retail</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wilhelm</t>
+          <t>Simmons</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2105,49 +2101,51 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>312 Nashville Store Manager</t>
+          <t>802 Tallahassee - Retail</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
+          <t>O'Steen-Mann</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Gabe</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>713 St. Simons - Retail</t>
+          <t>802 Tallahassee - Retail</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Paulo</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>da Silva</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2155,24 +2153,24 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>805 Orlando (University) Retail</t>
+          <t>802 Tallahassee - Retail</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Armando</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Paquin</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2180,24 +2178,24 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>714 Orlando - Retail</t>
+          <t>514 Columbia - Retail</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Corley</t>
+          <t>Seth</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Snell</t>
+          <t>Luccas</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2205,24 +2203,24 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>511 Lawrence - Retail</t>
+          <t>315 Johnson City - Retail</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Vaniman</t>
+          <t>Pierce</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2230,24 +2228,24 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>312 Nashville - Retail</t>
+          <t>315 Johnson City - Retail</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hagerman</t>
+          <t>Reyes</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2255,76 +2253,76 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>603 Wilmington Retail</t>
+          <t>315 Johnson City - Retail</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Chavez</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Jaime</t>
-        </is>
+          <t>Marin Jr</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>510 Springfield MO - Retail</t>
+          <t>715 Sawgrass - Retail</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Maxwell</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Grant</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
+          <t>Howard</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Maxwell</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>715 Sawgrass - Retail</t>
+          <t>708 Norcross - Retail</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Bartlette</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2332,51 +2330,49 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>602 Columbia Retail</t>
+          <t>706 West Cobb / Marietta - Retail</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fidel</t>
+          <t>Lawrence</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Gomez</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Josh</t>
-        </is>
+          <t>Tate</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>208 San Marcos - Retail</t>
+          <t>604 Myrtle Beach - Retail</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Seiger</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2384,7 +2380,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>803 Tuscaloosa Retail</t>
+          <t>511 Lawrence - Retail</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2396,12 +2392,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Pimentel</t>
+          <t>Whitten</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2409,7 +2405,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>716 Dolphin - Retail</t>
+          <t>301 Evansville - Retail</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2421,12 +2417,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Jared</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Trice</t>
+          <t>Doughty</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2434,7 +2430,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>203 Tyler - Retail</t>
+          <t>419 Corvallis - Retail</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2446,12 +2442,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Julie</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Reece</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2459,51 +2455,51 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>317 Asheville - Retail</t>
+          <t>200 Lubbock - Retail</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Doy</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Dunlap</t>
+          <t>Sterling</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tim</t>
+          <t>Gus</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>601 Mt Pleasant Retail</t>
+          <t>716 Dolphin - Retail</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Kathy</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Febo</t>
+          <t>Rodecap</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2511,24 +2507,24 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>711 Marietta-East Cobb - Retail</t>
+          <t>601 Mt Pleasant - Retail</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>William</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Marin Jr</t>
+          <t>Johnson Jr</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2536,51 +2532,49 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>715 Sawgrass - Retail</t>
+          <t>708 Norcross - Manager</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Weems</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Andrew</t>
-        </is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>420 Eugene - Retail</t>
+          <t>206 Katy - Retail</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pollard</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2588,24 +2582,24 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>420 Eugene Store Manager</t>
+          <t>207 Waco - Retail</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kranwinkle</t>
+          <t>Zyderveld</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2613,24 +2607,24 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>421 Hillsboro Store Manager</t>
+          <t>704 Charlottesville - Retail</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kenneth</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Perciful</t>
+          <t>Luna</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2638,24 +2632,24 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>315 Johnson City - Retail</t>
+          <t>801 Destin - Retail</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Adrienne</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cabiness</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2663,24 +2657,24 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>705 Macon Store Manager</t>
+          <t>712 Montgomery - Retail</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Travis</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Vaniman</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2688,24 +2682,24 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>207 Waco Store Manager</t>
+          <t>312 Nashville - Retail</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Fielding</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Shipman</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2713,76 +2707,76 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>602 Columbia Store Manager</t>
+          <t>205 Rogers - Retail</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Loughrey</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
+          <t>Bunch</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Steven</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>710 Forsyth Store Manager</t>
+          <t>605 Winston / Salem - Retail</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Brennon</t>
+          <t>Kellie</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Garff</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
+          <t>Cooke</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>102 Fort Union Store Manager</t>
+          <t>406 Bozeman - Retail</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>McDowell</t>
+          <t>Stawicki</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2790,66 +2784,74 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>802 Tallahassee Retail</t>
+          <t>208 San Marcos - Retail</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Nicholas</t>
+          <t>Keith</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ronayne</t>
+          <t>Oesterreich</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>710 Forsyth - Retail</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Operation Manager</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Blake</t>
+          <t>Anaya</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bittinger</t>
+          <t>Barnes</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>707 Peachtree City - Manager</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Operation Manager</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Toshanna</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Hagerman</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2857,24 +2859,24 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>404 Missoula - Retail</t>
+          <t>603 Wilmington - Retail</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cameron</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Berona</t>
+          <t>Lamb</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2882,24 +2884,24 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>420 Eugene - Retail</t>
+          <t>510 Springfield MO - Retail</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Clifton</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>White</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2907,24 +2909,24 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>420 Eugene - Retail</t>
+          <t>702 Athens - Retail</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cameron</t>
+          <t>Diane</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Rud</t>
+          <t>Urbina</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2932,24 +2934,24 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>420 Eugene - Retail</t>
+          <t>715 Sawgrass - Manager</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bickel</t>
+          <t>Loughrey</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2957,24 +2959,24 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>602 Columbia Retail</t>
+          <t>710 Forsyth - Manager</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lawrence</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Cumbo</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2982,24 +2984,24 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>305 Ft. Wayne - Retail</t>
+          <t>804 Jacksonville - Manager</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Alexis</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3007,24 +3009,24 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>712 Montgomery - Retail</t>
+          <t>603 Wilmington - Manager</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Zachary</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Churchill</t>
+          <t>Dutton</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -3032,49 +3034,51 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>205 Rogers - Retail</t>
+          <t>100 Park City - Manager</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Dustin</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Huffman</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
+          <t>Hopkins</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Skipp</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>605 Winston-Salem Retail</t>
+          <t>410 Bend - Retail</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Tracy</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Allgood-Cummings</t>
+          <t>Perciful</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3082,24 +3086,24 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>705 Macon - Retail</t>
+          <t>315 Johnson City - Retail</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Connor</t>
+          <t>Adrienne</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Peat</t>
+          <t>Cabiness</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3107,24 +3111,24 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>106 Foothill - Retail</t>
+          <t>705 Macon - Manager</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Travis</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Milne</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3132,51 +3136,51 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>802 Tallahassee Retail</t>
+          <t>207 Waco - Manager</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Bethany</t>
+          <t>Fernando</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sorenson</t>
+          <t>Escobar</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Fernando</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>514 Columbia - Retail</t>
+          <t>715 Sawgrass - Retail</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bryan</t>
+          <t>Amadou</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Moaf</t>
+          <t>Njie</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3184,24 +3188,24 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>315 Johnson City - Retail</t>
+          <t>715 Sawgrass - Retail</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Caldwell</t>
+          <t>Wolfe</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -3209,24 +3213,24 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>404 Missoula - Retail</t>
+          <t>420 Eugene - Retail</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Inna</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Kato</t>
+          <t>Michel</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -3234,24 +3238,24 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>706 Marietta-West Cobb - Retail</t>
+          <t>513 Wichita - Retail</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Diane</t>
+          <t>Zachary</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Urbina</t>
+          <t>Churchill</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -3259,24 +3263,24 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>715 Sawgrass - Retail</t>
+          <t>205 Rogers - Retail</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Stampe</t>
+          <t>Huffman</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -3284,51 +3288,49 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>717 Gainesville Store Manager</t>
+          <t>605 Winston / Salem - Retail</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Brentz</t>
+          <t>Connor</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Dancy</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Brentz</t>
-        </is>
+          <t>Peat</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>707 Peachtree City Store Manager</t>
+          <t>106 Foothill - Retail</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Allgood-Cummings</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -3336,24 +3338,24 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>603 Wilmington Store Manager</t>
+          <t>705 Macon - Retail</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Alexis</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Dutton</t>
+          <t>Denison</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3361,24 +3363,24 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>100 Park City Store Manager</t>
+          <t>401 Idaho Falls - Retail</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Keith</t>
+          <t>Van</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Richardson</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3386,24 +3388,24 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>805 Orlando (University) Store Manager</t>
+          <t>312 Nashville - Retail</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Brigitte</t>
+          <t>Branon</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Olivares</t>
+          <t>Highbridge</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -3411,24 +3413,24 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>716 Dolphin Store Manager</t>
+          <t>100 Park City - Retail</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -3436,7 +3438,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>707 Peachtree City - Retail</t>
+          <t>314 Chattanooga - Retail</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3448,12 +3450,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Nathaniel</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ellis</t>
+          <t>Perez</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -3461,7 +3463,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>410 Bend - Retail</t>
+          <t>707 Peachtree City - Retail</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3473,12 +3475,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Rodecap</t>
+          <t>Talcott</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -3486,7 +3488,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>601 Mt Pleasant Retail</t>
+          <t>804 Jacksonville - Retail</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3498,12 +3500,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Plantz</t>
+          <t>Bodie</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -3511,7 +3513,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>308 Cincinnati - Retail</t>
+          <t>305 Ft. Wayne - Retail</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3523,12 +3525,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Bradford</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -3536,7 +3538,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>200 Lubbock - Retail</t>
+          <t>711 East Cobb / Marietta (EC) - Manager</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3548,12 +3550,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Nathaniel</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>McDaniel</t>
+          <t>Ellis</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3561,7 +3563,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>316 Louisville - Retail</t>
+          <t>410 Bend - Retail</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3573,22 +3575,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sterling</t>
+          <t>Chavez</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Gus</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>716 Dolphin - Retail</t>
+          <t>510 Springfield MO - Retail</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3600,37 +3602,39 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Brennon</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Brough</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>0</v>
+          <t>Garff</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>803 Tuscaloosa Retail</t>
+          <t>102 Fort Union - Manager</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Mohammad</t>
+          <t>Octavio</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3638,7 +3642,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>101 Orem - Retail</t>
+          <t>001 Simply EV - Manager</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3650,12 +3654,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Talia</t>
+          <t>William</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>D'Angelo</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3663,7 +3667,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>605 Winston-Salem Retail</t>
+          <t>602 Columbia - Retail</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3675,12 +3679,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Danny</t>
+          <t>Inna</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hunt</t>
+          <t>Kato</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3688,7 +3692,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>514 Columbia Store Manager</t>
+          <t>706 West Cobb / Marietta (WC) - Manager</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3700,12 +3704,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Arlene</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Defelice</t>
+          <t>Marks</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3713,7 +3717,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>702 Athens - Retail</t>
+          <t>713 St. Simons - Retail</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3725,12 +3729,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Alvarez</t>
+          <t>Stahle</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3738,7 +3742,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>714 Orlando Store Manager</t>
+          <t>105 St. George - Retail</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3750,12 +3754,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Rodney</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Reese</t>
+          <t>Sexton</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3763,7 +3767,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>801 Destin - Retail</t>
+          <t>511 Lawrence - Manager</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3775,12 +3779,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Porting</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3788,7 +3792,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>510 Springfield MO Store Manager</t>
+          <t>203 Tyler - Manager</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3800,22 +3804,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Jay</t>
+          <t>Jennie</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Myers</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Jay</t>
-        </is>
+          <t>Groshong</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>317 Asheville Store Manager</t>
+          <t>419 Corvallis - Manager</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3827,12 +3829,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Marks</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3840,7 +3842,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>713 St. Simons - Retail</t>
+          <t>601 Mt Pleasant - Manager</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3852,12 +3854,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Ridge</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Stahle</t>
+          <t>Asble</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3865,24 +3867,24 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>105 St. George - Retail</t>
+          <t>314 Chattanooga - Retail</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sexton</t>
+          <t>Christensen</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3890,24 +3892,24 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>511 Lawrence Store Manager</t>
+          <t>102 Fort Union - Retail</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Store Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Blanca Maria</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Dunlap</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3915,7 +3917,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>101 Orem - Retail</t>
+          <t>801 Destin - Retail</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3927,20 +3929,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Alexis</t>
+          <t>Kinsey</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Denison</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>0</v>
+          <t>Pase</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Kinsey</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>401 Idaho Falls - Retail</t>
+          <t>207 Waco - Retail</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3952,20 +3956,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Van</t>
+          <t>Michal</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Richardson</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>0</v>
+          <t>Nance</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>312 Nashville - Retail</t>
+          <t>100 Park City - Retail</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3977,12 +3983,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Anaya</t>
+          <t>Tomas</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Ramirez</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3990,7 +3996,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>707 Peachtree City Store Manager</t>
+          <t>206 Katy - Retail</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4002,12 +4008,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Joe</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mastrobattista Jr</t>
+          <t>Pimentel</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4015,7 +4021,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>603 Wilmington Retail</t>
+          <t>716 Dolphin - Retail</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4027,22 +4033,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Michal</t>
+          <t>Jared</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Nance</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Mike</t>
-        </is>
+          <t>Trice</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>100 Park City - Retail</t>
+          <t>203 Tyler - Retail</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4054,12 +4058,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Jaidon</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Reece</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4067,49 +4071,51 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>712 Montgomery - Retail</t>
+          <t>317 Asheville - Retail</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Emery</t>
+          <t>Doy</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Graham</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>0</v>
+          <t>Dunlap</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>712 Montgomery - Retail</t>
+          <t>601 Mt Pleasant - Retail</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Amadou</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Njie</t>
+          <t>Lamrouex</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -4117,7 +4123,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>715 Sawgrass - Retail</t>
+          <t>421 Hillsboro - Retail</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4129,21 +4135,19 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Branon</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lamrouex</t>
+          <t>Highbridge</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>0</v>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>421 Hillsboro - Retail</t>
-        </is>
+      <c r="D147" t="n">
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4154,20 +4158,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>George</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Iglesias</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>0</v>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Wright</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>716 Dolphin - Retail</t>
+          <t>603 Wilmington - Manager</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4179,12 +4185,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Kovash</t>
+          <t>Stevenson</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -4192,51 +4198,49 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>406 Bozeman - Retail</t>
+          <t>804 Jacksonville - Retail</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Currie</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Drew</t>
-        </is>
+          <t>Lanier</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>406 Bozeman - Retail</t>
+          <t>804 Jacksonville - Retail</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Julian</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Frankenfield</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -4244,24 +4248,24 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>802 Tallahassee Retail</t>
+          <t>807 Clearwater - Retail</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Gross</t>
+          <t>Perlaza</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -4269,24 +4273,24 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>514 Columbia - Retail</t>
+          <t>807 Clearwater - Retail</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Caleb</t>
+          <t>Seven</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Mann</t>
+          <t>Saunders</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -4294,76 +4298,76 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>315 Johnson City - Retail</t>
+          <t>410 Bend - Retail</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Melinda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sewell</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Mindi</t>
-        </is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>706 Marietta-West Cobb - Retail</t>
+          <t>410 Bend - Retail</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Jacely</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Gray</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>0</v>
+          <t>Cano</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Ace</t>
+        </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>207 Waco - Retail</t>
+          <t>316 Louisville - Retail</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Kathy</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Zyderveld</t>
+          <t>Febo</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -4371,24 +4375,24 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>704 Charlottesville - Retail</t>
+          <t>711 East Cobb / Marietta - Retail</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Hoffmann</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -4396,24 +4400,24 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>206 Katy - Retail</t>
+          <t>308 Cincinnati - Retail</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Fielding</t>
+          <t>Marshal</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Shipman</t>
+          <t>Massey</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -4421,51 +4425,51 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>205 Rogers - Retail</t>
+          <t>200 Lubbock - Retail</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Operation Manager</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>George</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Bunch</t>
+          <t>Fisher</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Charlie</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>605 Winston-Salem Retail</t>
+          <t>Mid Atlantic</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Market Director</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nguyen</t>
+          <t>McDowell</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -4473,24 +4477,24 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>513 Wichita - Retail</t>
+          <t>Mid Atlantic</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Market Director</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Marcus</t>
+          <t>Emaly</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Rivera</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -4498,24 +4502,24 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>712 Montgomery - Retail</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Service Leader</t>
+          <t>Market Director</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Kyle</t>
+          <t>Hugh</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lamb</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -4523,24 +4527,24 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>510 Springfield MO - Retail</t>
+          <t>South</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Market Director</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Clifton</t>
+          <t>Todd</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Ghys</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -4548,24 +4552,24 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>702 Athens - Retail</t>
+          <t>Central Market</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Market Director</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Suguna</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Kersey</t>
+          <t>Jeffries</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -4573,24 +4577,24 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>421 Hillsboro - Retail</t>
+          <t>Purchasing/Operations</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Senior Operations Manager</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Spencer</t>
+          <t>Amiris</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ashkin</t>
+          <t>Garriga</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -4598,24 +4602,24 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>105 St. George - Retail</t>
+          <t>Purchasing</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Senior Operations Manager</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Dugan</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Murphy</t>
+          <t>Stampe</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -4623,49 +4627,51 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>717 Gainesville - Retail</t>
+          <t>702 Athens - Retail</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Chandler</t>
+          <t>Fidel</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Strean</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>0</v>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Josh</t>
+        </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>713 St. Simons - Retail</t>
+          <t>208 San Marcos - Retail</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Rosivet</t>
+          <t>Dylan</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Bartlette</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -4673,24 +4679,24 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>714 Orlando - Retail</t>
+          <t>602 Columbia - Retail</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Jameson</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Seiger</t>
+          <t>Busch</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -4698,24 +4704,24 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>511 Lawrence - Retail</t>
+          <t>406 Bozeman - Retail</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Maddox</t>
+          <t>Brough</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -4723,24 +4729,24 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>314 Chattanooga - Retail</t>
+          <t>803 Tuscaloosa - Retail</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Nathanial</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Christensen</t>
+          <t>Shelton</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -4748,24 +4754,24 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>102 Fort Union - Retail</t>
+          <t>301 Evansville - Retail</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Jeremy</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Dunlap</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -4773,24 +4779,24 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>801 Destin - Retail</t>
+          <t>713 St. Simons - Retail</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Paulo</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>da Silva</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -4798,24 +4804,24 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>711 Marietta-East Cobb - Retail</t>
+          <t>805 Orlando (University) - Retail</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Marzette</t>
+          <t>Armando</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Toomer</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4823,24 +4829,24 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>711 Marietta-East Cobb - Retail</t>
+          <t>714 Orlando - Retail</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Corley</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Shelton</t>
+          <t>Snell</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4848,24 +4854,24 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>711 Marietta-East Cobb - Retail</t>
+          <t>511 Lawrence - Retail</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Arron</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4873,24 +4879,24 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>205 Rogers - Retail</t>
+          <t>715 Sawgrass - Retail</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Zachary</t>
+          <t>Caleb</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Blanks</t>
+          <t>Griggs</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4898,51 +4904,49 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>605 Winston-Salem Retail</t>
+          <t>313 Vanderbilt - Retail</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Cameron</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Bell</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Paige</t>
-        </is>
+          <t>Sears</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>605 Winston-Salem Retail</t>
+          <t>803 Tuscaloosa - Manager</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Lynn</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Mosley</t>
+          <t>Harrington</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4950,24 +4954,24 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>203 Tyler - Retail</t>
+          <t>406 Bozeman - Retail</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Simmons</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4975,74 +4979,78 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>203 Tyler - Retail</t>
+          <t>305 Ft. Wayne - Retail</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Perlaza</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
+          <t>Wilhelm</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>807 Clearwater Retail</t>
+          <t>312 Nashville - Manager</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Seven</t>
+          <t>Brentz</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Saunders</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>0</v>
+          <t>Dancy</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Brentz</t>
+        </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>410 Bend - Retail</t>
+          <t>707 Peachtree City - Manager</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Arlene</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Defelice</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -5050,7 +5058,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>203 Tyler Store Manager</t>
+          <t>702 Athens - Retail</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5062,20 +5070,22 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Jennie</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Groshong</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>0</v>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>419 Corvallis Store Manager</t>
+          <t>604 Myrtle Beach - Retail</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5087,12 +5097,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Mohammad</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -5100,7 +5110,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>601 Mt Pleasant Store Manager</t>
+          <t>101 Orem - Retail</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5112,12 +5122,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Becky</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Davies</t>
+          <t>Pence</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -5125,24 +5135,24 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Finance &amp; Accounting</t>
+          <t>312 Nashville - Retail</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Staff Accountant</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Demian</t>
+          <t>Shawna</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Mckibben</t>
+          <t>Kohon</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -5150,24 +5160,24 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>West Market</t>
+          <t>801 Destin - Retail</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Market Manager</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Emeth</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -5175,49 +5185,51 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>102 Fort Union - Retail</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Market Manager</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>0</v>
+          <t>Currie</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Drew</t>
+        </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>406 Bozeman - Retail</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Market Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Navarro Benejan</t>
+          <t>Frankenfield</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -5225,24 +5237,24 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>714 Orlando - Retail</t>
+          <t>802 Tallahassee - Retail</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Jamin</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Pottle</t>
+          <t>Gross</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -5250,24 +5262,24 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>105 St. George - Retail</t>
+          <t>514 Columbia - Retail</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Caleb</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Whitten</t>
+          <t>Mann</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -5275,49 +5287,51 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>301 Evansville - Retail</t>
+          <t>315 Johnson City - Retail</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Operation Manager</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Hugh</t>
+          <t>Melinda</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>0</v>
+          <t>Sewell</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Mindi</t>
+        </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>706 West Cobb / Marietta - Retail</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Market Director</t>
+          <t>Service Leader</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Todd</t>
+          <t>Vern</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Ghys</t>
+          <t>Loforti</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -5325,24 +5339,24 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Central Market</t>
+          <t>Corporate</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Market Director</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Emaly</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Rivera</t>
+          <t>Kyser</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -5350,51 +5364,49 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Retail Field Support</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Market Director</t>
+          <t>Field Service Trainer</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Fisher</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Charlie</t>
-        </is>
+          <t>Orman</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Mid Atlantic</t>
+          <t>Purchasing/Operations</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Market Director</t>
+          <t>Director of Purchasing</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Suguna</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Jeffries</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -5402,24 +5414,24 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Purchasing/Operations</t>
+          <t>Warehouse</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Senior Operations Manager</t>
+          <t>Warehouse Team Member</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Amiris</t>
+          <t>Oddi</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Garriga</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -5427,24 +5439,24 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Purchasing</t>
+          <t>Warehouse</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Senior Operations Manager</t>
+          <t>Warehouse Team Member</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Jacquelin</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Marston</t>
+          <t>Guzman</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -5452,24 +5464,24 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>717 Gainesville - Retail</t>
+          <t>Warehouse</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Warehouse Team Member</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Alfredo</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Webb</t>
+          <t>Munoz-Unsain</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -5477,24 +5489,24 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>713 St. Simons - Retail</t>
+          <t>Warehouse</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Senior Warehouse Manager</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Howard</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Forester</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -5502,24 +5514,24 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>801 Destin - Retail</t>
+          <t>Sales &amp; Operations</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>VP of Sales Operations</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sharaf</t>
+          <t>Quincy</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Syed</t>
+          <t>Gneiting</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -5527,24 +5539,24 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>702 Athens - Retail</t>
+          <t>401 Idaho Falls - Retail</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Senior Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Greir</t>
+          <t>Gabrielle</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -5552,24 +5564,24 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>510 Springfield MO - Retail</t>
+          <t>803 Tuscaloosa - Retail</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Ridge</t>
+          <t>Marieena</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Asble</t>
+          <t>Reyna</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -5577,24 +5589,24 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>314 Chattanooga - Retail</t>
+          <t>803 Tuscaloosa - Manager</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Welkner</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -5602,24 +5614,24 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>511 Lawrence - Retail</t>
+          <t>710 Forsyth - Retail</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Shawna</t>
+          <t>William</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Kohon</t>
+          <t>Bradford</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -5627,24 +5639,24 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>801 Destin - Retail</t>
+          <t>710 Forsyth - Retail</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Emeth</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -5652,24 +5664,24 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>102 Fort Union - Retail</t>
+          <t>406 Bozeman - Retail</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Pence</t>
+          <t>Drew</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -5677,7 +5689,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>312 Nashville - Retail</t>
+          <t>601 Mt Pleasant - Retail</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -5689,12 +5701,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Lall</t>
+          <t>Balevre Jr</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -5702,24 +5714,24 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>410 Bend - Retail</t>
+          <t>711 East Cobb / Marietta - Retail</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Tim</t>
+          <t>Fabian</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Deschler</t>
+          <t>Cervantes</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -5727,47 +5739,49 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>317 Asheville - Retail</t>
+          <t>716 Dolphin - Retail</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Branon</t>
+          <t>Allyson</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Highbridge</t>
+          <t>Mares</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>0</v>
       </c>
-      <c r="D211" t="n">
-        <v>0</v>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>200 Lubbock - Retail</t>
+        </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>William</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Webb</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -5775,24 +5789,24 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>410 Bend - Retail</t>
+          <t>713 St. Simons - Retail</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -5800,24 +5814,24 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>710 Forsyth Store Manager</t>
+          <t>401 Idaho Falls - Retail</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Tysen</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ellis</t>
+          <t>Dettmann</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -5825,24 +5839,24 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>IT Team</t>
+          <t>712 Montgomery - Retail</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>IT Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Dobson</t>
+          <t>Hunt</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -5850,24 +5864,24 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>514 Columbia - Manager</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Marketing Coordinator</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Daniela</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -5875,24 +5889,24 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>106 Foothill - Retail</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Amazon Business Sales Manager</t>
+          <t>Store Leader</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Becky</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Orman</t>
+          <t>Davies</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -5900,24 +5914,24 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Business Analysis</t>
+          <t>Finance &amp; Accounting</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Data Analytics Manager</t>
+          <t>Staff Accountant</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Demian</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>McGowan</t>
+          <t>Mckibben</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -5925,24 +5939,24 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>604 Myrtle Beach Retail</t>
+          <t>West Market</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Market Manager</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Cayli</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Narvaez</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -5950,24 +5964,24 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>716 Dolphin - Retail</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Market Manager</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Miguel</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>De Los Santos</t>
+          <t>Marston</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -5975,32 +5989,34 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>001 Simply EV Retail</t>
+          <t>717 Gainesville - Retail</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Siska</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>0</v>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Styles</t>
+        </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>510 Springfield MO - Retail</t>
+          <t>420 Eugene - Retail</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6012,12 +6028,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Allyson</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Mares</t>
+          <t>Winters</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -6025,7 +6041,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>200 Lubbock - Retail</t>
+          <t>404 Missoula - Retail</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6037,12 +6053,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Travis</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Tyson</t>
+          <t>Fuller</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -6050,7 +6066,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>513 Wichita - Retail</t>
+          <t>101 Orem - Retail</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6062,12 +6078,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Isaac</t>
+          <t>Alexis</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ruffin</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -6075,24 +6091,24 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>705 Macon - Retail</t>
+          <t>702 Athens - Retail</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Leslie</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Templeton</t>
+          <t>Gonzales</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -6100,24 +6116,24 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>106 Foothill - Retail</t>
+          <t>314 Chattanooga - Retail</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Andres</t>
+          <t>Kendric</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Winburn</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -6125,49 +6141,51 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>106 Foothill - Retail</t>
+          <t>316 Louisville - Retail</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Mikayla</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Barnard</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>0</v>
+          <t>Goff</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>MiKayla</t>
+        </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>707 Peachtree City - Retail</t>
+          <t>207 Waco - Retail</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Oluwanifemi</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -6175,24 +6193,24 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>514 Columbia - Retail</t>
+          <t>205 Rogers - Retail</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Senior Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Anabella</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Motino</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -6200,24 +6218,24 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>715 Sawgrass - Retail</t>
+          <t>704 Charlottesville - Retail</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Senior Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Jamin</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>matos</t>
+          <t>Pottle</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -6225,24 +6243,24 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>715 Sawgrass - Retail</t>
+          <t>105 St. George - Retail</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Drew</t>
+          <t>Jamiel</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Griffin</t>
+          <t>Neal</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -6250,49 +6268,51 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>706 Marietta-West Cobb - Retail</t>
+          <t>717 Gainesville - Retail</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Hasenpflug</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>0</v>
+          <t>Escobar</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>406 Bozeman - Retail</t>
+          <t>805 Orlando (University) - Retail</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Kelsie</t>
+          <t>Joel</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Gonzales</t>
+          <t>Mejia</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -6300,24 +6320,24 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>208 San Marcos - Retail</t>
+          <t>805 Orlando (University) - Retail</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Quilan</t>
+          <t>Angel</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Whitson</t>
+          <t>Navarro Benejan</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -6325,24 +6345,24 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>706 Marietta-West Cobb - Retail</t>
+          <t>714 Orlando - Retail</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>jacqueline</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Duarte</t>
+          <t>rivera</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -6350,24 +6370,24 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>805 Orlando (University) Store Manager</t>
+          <t>714 Orlando - Retail</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Terence</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Bazzell</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -6375,49 +6395,51 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>708 Norcross - Retail</t>
+          <t>203 Tyler - Retail</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Tony</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Fuller</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>0</v>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>101 Orem - Retail</t>
+          <t>317 Asheville - Retail</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Bagarella</t>
+          <t>Sanchez</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -6425,24 +6447,24 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>707 Peachtree City - Retail</t>
+          <t>716 Dolphin - Retail</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Bruce</t>
+          <t>Jayme</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -6450,7 +6472,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>605 Winston-Salem Retail</t>
+          <t>314 Chattanooga - Retail</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6462,12 +6484,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Natalie</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Larsen</t>
+          <t>Forester</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -6475,24 +6497,24 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Finance &amp; Accounting</t>
+          <t>801 Destin - Retail</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Balevre Jr</t>
+          <t>Wilcox</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -6500,24 +6522,24 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>711 Marietta-East Cobb - Retail</t>
+          <t>Retail Field Support</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Service Inventory</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Fabian</t>
+          <t>Terence</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Cervantes</t>
+          <t>Bazzell</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -6525,7 +6547,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>716 Dolphin - Retail</t>
+          <t>708 Norcross - Retail</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6537,12 +6559,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Drew</t>
+          <t>Bagarella</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -6550,7 +6572,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>601 Mt Pleasant Retail</t>
+          <t>707 Peachtree City - Retail</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -6562,12 +6584,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -6575,7 +6597,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>203 Tyler - Retail</t>
+          <t>511 Lawrence - Retail</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -6587,22 +6609,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Kelsie</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Thomas</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Styles</t>
-        </is>
+          <t>Gonzales</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>420 Eugene - Retail</t>
+          <t>208 San Marcos - Retail</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -6614,12 +6634,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Winters</t>
+          <t>Hasenpflug</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -6627,7 +6647,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>404 Missoula - Retail</t>
+          <t>406 Bozeman - Retail</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -6639,37 +6659,39 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Nicholas</t>
+          <t>Jenee</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Ramdular</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>0</v>
+          <t>Styron</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Jey</t>
+        </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>707 Peachtree City - Retail</t>
+          <t>712 Montgomery - Retail</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Jaiden</t>
+          <t>Travis</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Lance</t>
+          <t>Tyson</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -6677,24 +6699,24 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>101 Orem - Retail</t>
+          <t>513 Wichita - Retail</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Nakia</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Loftus</t>
+          <t>Staples</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -6702,24 +6724,24 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>101 Orem - Retail</t>
+          <t>710 Forsyth - Retail</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Specialist</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Braeden</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Neale</t>
+          <t>Loftus</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -6739,12 +6761,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Ethan</t>
+          <t>Monte</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Perry</t>
+          <t>Rutledge</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -6752,7 +6774,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>101 Orem - Retail</t>
+          <t>404 Missoula - Retail</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -6764,12 +6786,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Gabrielle</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -6777,7 +6799,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>803 Tuscaloosa Retail</t>
+          <t>708 Norcross - Retail</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -6789,12 +6811,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Reyes</t>
+          <t>Ronayne</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -6802,76 +6824,76 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>315 Johnson City - Retail</t>
+          <t>708 Norcross - Retail</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Evander</t>
+          <t>Ari</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Copeland</t>
-        </is>
-      </c>
-      <c r="C254" t="n">
-        <v>0</v>
+          <t>Walker</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Ari</t>
+        </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>705 Macon - Retail</t>
+          <t>708 Norcross - Retail</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Jenee</t>
+          <t>Drew</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Styron</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Jey</t>
-        </is>
+          <t>Griffin</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>712 Montgomery - Retail</t>
+          <t>706 West Cobb / Marietta - Retail</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Senior Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>malachi</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Collier</t>
+          <t>Cobey</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -6879,7 +6901,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>316 Louisville - Retail</t>
+          <t>706 West Cobb / Marietta - Retail</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -6891,20 +6913,22 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Sean</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>McNally</t>
-        </is>
-      </c>
-      <c r="C257" t="n">
-        <v>0</v>
+          <t>Tucker</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>308 Cincinnati - Retail</t>
+          <t>511 Lawrence - Retail</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -6916,12 +6940,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Shawn</t>
+          <t>Alyssa</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Sexton</t>
+          <t>Guth</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -6929,24 +6953,24 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>200 Lubbock - Retail</t>
+          <t>301 Evansville - Retail</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Tyra</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Matthews</t>
+          <t>Braswell</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -6954,24 +6978,24 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>207 Waco - Retail</t>
+          <t>803 Tuscaloosa - Manager</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Caleb</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Raisor</t>
+          <t>Aquino</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -6979,24 +7003,24 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>207 Waco - Retail</t>
+          <t>305 Ft. Wayne - Retail</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Greir</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Santana</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -7004,24 +7028,24 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>001 Simply EV Retail</t>
+          <t>510 Springfield MO - Retail</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Cameron</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Geuter</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -7029,24 +7053,24 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>704 Charlottesville - Retail</t>
+          <t>702 Athens - Retail</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Ashton</t>
+          <t>Zachary</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Brown-taylor</t>
+          <t>Blanks</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -7054,24 +7078,24 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>704 Charlottesville - Retail</t>
+          <t>605 Winston / Salem - Retail</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>PHILIP</t>
+          <t>Evander</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>COLLINS</t>
+          <t>Copeland</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -7079,24 +7103,24 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>704 Charlottesville - Retail</t>
+          <t>705 Macon - Retail</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>McGowan</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -7104,24 +7128,24 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>206 Katy - Retail</t>
+          <t>604 Myrtle Beach - Retail</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Sharaf</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Bradford</t>
+          <t>Syed</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -7129,24 +7153,24 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>710 Forsyth - Retail</t>
+          <t>702 Athens - Retail</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Lankford</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -7154,24 +7178,24 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>406 Bozeman - Retail</t>
+          <t>603 Wilmington - Retail</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Sonny</t>
+          <t>Cameron</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -7179,24 +7203,24 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>406 Bozeman - Retail</t>
+          <t>802 Tallahassee - Retail</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Andres</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Paez Munoz</t>
+          <t>Lall</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -7204,7 +7228,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>406 Bozeman - Retail</t>
+          <t>410 Bend - Retail</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7216,12 +7240,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Speelman</t>
+          <t>Ramdular</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -7229,7 +7253,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>401 Idaho Falls - Retail</t>
+          <t>707 Peachtree City - Retail</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -7241,12 +7265,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Griffin</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Barnard</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -7254,7 +7278,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>312 Nashville - Retail</t>
+          <t>707 Peachtree City - Retail</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -7266,12 +7290,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Jefferson</t>
+          <t>Jakiyah</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Fields</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -7279,7 +7303,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>708 Norcross - Retail</t>
+          <t>707 Peachtree City - Retail</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -7291,12 +7315,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>DeJuan</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -7304,7 +7328,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>708 Norcross - Retail</t>
+          <t>707 Peachtree City - Retail</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -7316,22 +7340,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Ari</t>
+          <t>Blake</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Walker</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Ari</t>
-        </is>
+          <t>Bittinger</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>708 Norcross - Retail</t>
+          <t>604 Myrtle Beach - Retail</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -7343,12 +7365,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Cobey</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -7356,7 +7378,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>706 Marietta-West Cobb - Retail</t>
+          <t>604 Myrtle Beach - Retail</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -7368,12 +7390,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Jaidon</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Parrish</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -7381,7 +7403,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>206 Katy - Retail</t>
+          <t>712 Montgomery - Retail</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -7393,12 +7415,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Emery</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -7406,7 +7428,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>604 Myrtle Beach Retail</t>
+          <t>712 Montgomery - Retail</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -7418,12 +7440,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Anabella</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Motino</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -7431,24 +7453,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>513 Wichita - Retail</t>
+          <t>715 Sawgrass - Retail</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Benito</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Lugo</t>
+          <t>matos</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -7456,24 +7478,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>200 Lubbock - Retail</t>
+          <t>715 Sawgrass - Retail</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Branon</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Highbridge</t>
+          <t>Matos</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -7481,24 +7503,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>100 Park City - Retail</t>
+          <t>715 Sawgrass - Retail</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Tellayah</t>
+          <t>Jonet</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Dowling</t>
+          <t>West</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -7506,24 +7528,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>602 Columbia Retail</t>
+          <t>602 Columbia - Retail</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Donald</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Jurin</t>
+          <t>Nwegbo</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -7531,24 +7553,24 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>510 Springfield MO - Retail</t>
+          <t>706 West Cobb / Marietta (WC) - Manager</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Bryce</t>
+          <t>Maxwell</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Aaronson</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -7556,24 +7578,24 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>702 Athens - Retail</t>
+          <t>804 Jacksonville - Retail</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Apple Specialist</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Scalzo</t>
+          <t>Larsen</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -7581,24 +7603,24 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>702 Athens - Retail</t>
+          <t>Finance &amp; Accounting</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Spencer</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Gaddis</t>
+          <t>Sexton</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -7606,7 +7628,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>702 Athens - Retail</t>
+          <t>205 Rogers - Retail</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -7618,12 +7640,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Ortega Gonzalez</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -7631,7 +7653,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>702 Athens - Retail</t>
+          <t>605 Winston / Salem - Retail</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -7643,22 +7665,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Kamal</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Hauter</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Kamal</t>
-        </is>
+          <t>Poage</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>312 Nashville - Retail</t>
+          <t>605 Winston / Salem - Retail</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -7670,12 +7690,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Emery</t>
+          <t>Gainey</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -7683,7 +7703,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>312 Nashville - Retail</t>
+          <t>605 Winston / Salem - Retail</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -7695,12 +7715,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Vern</t>
+          <t>Braeden</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Loforti</t>
+          <t>Neale</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -7708,24 +7728,24 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Corporate</t>
+          <t>101 Orem - Retail</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Ethan</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Kyser</t>
+          <t>Perry</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -7733,24 +7753,24 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Retail Field Support</t>
+          <t>101 Orem - Retail</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Field Service Trainer</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Kameron</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>McCurdy</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -7758,49 +7778,45 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Warehouse</t>
+          <t>101 Orem - Retail</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Warehouse Team Member</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Oddi</t>
+          <t>Blake</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bittinger</t>
         </is>
       </c>
       <c r="C292" t="n">
         <v>0</v>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Warehouse</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>Warehouse Team Member</t>
-        </is>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Jacquelin</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Guzman</t>
+          <t>Speelman</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -7808,24 +7824,24 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Warehouse</t>
+          <t>401 Idaho Falls - Retail</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Warehouse Team Member</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Alfredo</t>
+          <t>Cameron</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Munoz-Unsain</t>
+          <t>Rud</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -7833,24 +7849,24 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Warehouse</t>
+          <t>420 Eugene - Retail</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Senior Warehouse Manager</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Howard</t>
+          <t>Calvin</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Guyette</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -7858,24 +7874,24 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Sales &amp; Operations</t>
+          <t>602 Columbia - Retail</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>VP of Sales Operations</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>Tellayah</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Gneiting</t>
+          <t>Dowling</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -7883,24 +7899,24 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>401 Idaho Falls - Retail</t>
+          <t>602 Columbia - Retail</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Jonet</t>
+          <t>Caleb</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>Romero</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -7908,51 +7924,49 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>602 Columbia Retail</t>
+          <t>305 Ft. Wayne - Retail</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Tony</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Allen</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>TL</t>
-        </is>
+          <t>Jarrell</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>317 Asheville - Retail</t>
+          <t>603 Wilmington - Retail</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Kendric</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Winburn</t>
+          <t>Jurin</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -7960,24 +7974,24 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>316 Louisville - Retail</t>
+          <t>510 Springfield MO - Retail</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Zachariah</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Naramor</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -7985,24 +7999,24 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>205 Rogers - Retail</t>
+          <t>301 Evansville - Retail</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Blake</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Bittinger</t>
+          <t>Ruffin</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -8010,7 +8024,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>604 Myrtle Beach Retail</t>
+          <t>705 Macon - Retail</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -8022,12 +8036,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Dev</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Paniagua</t>
+          <t>Patel</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -8035,7 +8049,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>314 Chattanooga - Retail</t>
+          <t>705 Macon - Retail</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -8047,12 +8061,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Caleb</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Qualls</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -8060,7 +8074,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>314 Chattanooga - Retail</t>
+          <t>513 Wichita - Retail</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -8072,12 +8086,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Jamiel</t>
+          <t>Andres</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Neal</t>
+          <t>Gonzalez</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -8085,7 +8099,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>717 Gainesville - Retail</t>
+          <t>106 Foothill - Retail</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -8097,20 +8111,22 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Joel</t>
+          <t>Kamal</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Mejia</t>
-        </is>
-      </c>
-      <c r="C305" t="n">
-        <v>0</v>
+          <t>Hauter</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Kamal</t>
+        </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>805 Orlando (University) Retail</t>
+          <t>312 Nashville - Retail</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -8122,22 +8138,20 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Escobar</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Junior</t>
-        </is>
+          <t>Scalzo</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>805 Orlando (University) Retail</t>
+          <t>702 Athens - Retail</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -8149,12 +8163,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ibarra</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -8162,7 +8176,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>714 Orlando - Retail</t>
+          <t>702 Athens - Retail</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -8174,12 +8188,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Amelia</t>
+          <t>Bryce</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Iriani</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -8187,24 +8201,24 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>206 Katy - Retail</t>
+          <t>702 Athens - Retail</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Gaddis</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -8212,51 +8226,49 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>704 Charlottesville - Retail</t>
+          <t>702 Athens - Retail</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Mikayla</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Goff</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>MiKayla</t>
-        </is>
+          <t>Emery</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>207 Waco - Retail</t>
+          <t>312 Nashville - Retail</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Griffin</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Schneider</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -8264,24 +8276,24 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>603 Wilmington Retail</t>
+          <t>312 Nashville - Retail</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Alexis</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -8289,24 +8301,24 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>702 Athens - Retail</t>
+          <t>314 Chattanooga - Retail</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Newlund</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -8314,24 +8326,24 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>410 Bend Store Manager</t>
+          <t>100 Park City - Retail</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Jennie</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Matthews</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -8339,24 +8351,24 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>301 Evansville - Retail</t>
+          <t>207 Waco - Retail</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Senior Apple Specialist</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Wilcox</t>
+          <t>Raisor</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -8364,24 +8376,24 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Retail Field Support</t>
+          <t>207 Waco - Retail</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Service Inventory</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Andres</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cantillo</t>
+          <t>Santana</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -8389,7 +8401,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>714 Orlando - Retail</t>
+          <t>001 Simply EV - Retail</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -8401,22 +8413,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>PHILIP</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tucker</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Toni</t>
-        </is>
+          <t>COLLINS</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>511 Lawrence - Retail</t>
+          <t>704 Charlottesville - Retail</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -8428,12 +8438,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Cameron</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Bickers</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -8441,7 +8451,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>301 Evansville - Retail</t>
+          <t>704 Charlottesville - Retail</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -8453,12 +8463,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Devon</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Baber</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -8466,7 +8476,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>314 Chattanooga - Retail</t>
+          <t>704 Charlottesville - Retail</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -8528,12 +8538,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Leigh</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Estrada</t>
+          <t>Parrish</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -8541,24 +8551,24 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Purchasing/Operations</t>
+          <t>206 Katy - Retail</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Director of Operations</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Aron</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -8566,24 +8576,24 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>106 Foothill - Retail</t>
+          <t>206 Katy - Retail</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Iglesias</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -8591,24 +8601,24 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>705 Macon - Retail</t>
+          <t>716 Dolphin - Retail</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Billy</t>
+          <t>Ismael</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Lackey</t>
+          <t>Bett</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -8616,24 +8626,24 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>203 Tyler - Retail</t>
+          <t>711 East Cobb / Marietta - Retail</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Marlon</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Schaeffer</t>
+          <t>Shelton</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -8641,24 +8651,24 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>420 Eugene - Retail</t>
+          <t>711 East Cobb / Marietta - Retail</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Reynold</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -8666,24 +8676,24 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>421 Hillsboro - Retail</t>
+          <t>314 Chattanooga - Retail</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Prouty</t>
+          <t>Paniagua</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -8691,24 +8701,24 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>419 Corvallis - Retail</t>
+          <t>314 Chattanooga - Retail</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Calvin</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Whitney</t>
+          <t>Mosley</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -8716,24 +8726,24 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>105 St. George - Retail</t>
+          <t>203 Tyler - Retail</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tim</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Bushey</t>
+          <t>Deschler</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -8741,24 +8751,24 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>404 Missoula - Retail</t>
+          <t>317 Asheville - Retail</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Matt</t>
+          <t>Kristen</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Hill</t>
+          <t>Simmons</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -8766,24 +8776,24 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>401 Idaho Falls - Retail</t>
+          <t>601 Mt Pleasant - Retail</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Reynold</t>
+          <t>malachi</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Collier</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -8791,24 +8801,24 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>314 Chattanooga - Retail</t>
+          <t>316 Louisville - Retail</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Isaiah</t>
+          <t>Shawn</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Whitaker</t>
+          <t>Sexton</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -8816,24 +8826,24 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>316 Louisville - Retail</t>
+          <t>200 Lubbock - Retail</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Benito</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Hott</t>
+          <t>Lugo</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -8841,24 +8851,24 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>710 Forsyth - Retail</t>
+          <t>200 Lubbock - Retail</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Jonah</t>
+          <t>Sean</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>McNally</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -8866,24 +8876,24 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>102 Fort Union - Retail</t>
+          <t>308 Cincinnati - Retail</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Technician</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Jaret</t>
+          <t>Leigh</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Estrada</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -8891,24 +8901,24 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>717 Gainesville - Retail</t>
+          <t>Purchasing/Operations</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Senior Technician</t>
+          <t>Director of Operations</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Welker</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -8916,7 +8926,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>604 Myrtle Beach Retail</t>
+          <t>513 Wichita - Retail</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -8928,12 +8938,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Dustin</t>
+          <t>William</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Simmons</t>
+          <t>Welker</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -8941,24 +8951,24 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>IT Team</t>
+          <t>604 Myrtle Beach - Retail</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>IT Technician</t>
+          <t>Senior Technician</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Kight</t>
+          <t>Nieves</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -8966,37 +8976,437 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>805 Orlando (University) - Retail</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Senior Director Sales</t>
+          <t>Senior Technician</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>705 Macon - Retail</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Hill</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>401 Idaho Falls - Retail</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Aron</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>106 Foothill - Retail</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>421 Hillsboro - Retail</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Prouty</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>419 Corvallis - Retail</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Whitney</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>105 St. George - Retail</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Marlon</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Schaeffer</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>420 Eugene - Retail</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Bushey</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>404 Missoula - Retail</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Jaret</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>717 Gainesville - Retail</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Hott</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>710 Forsyth - Retail</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Billy</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Lackey</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>203 Tyler - Retail</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Jonah</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>102 Fort Union - Retail</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Senior Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Dustin</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Simmons</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>IT Team</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>IT Technician</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Kight</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Senior Director Sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
           <t>Kibbe</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr">
+      <c r="B354" t="inlineStr">
         <is>
           <t>Horne</t>
         </is>
       </c>
-      <c r="C340" t="n">
-        <v>0</v>
-      </c>
-      <c r="D340" t="inlineStr">
+      <c r="C354" t="n">
+        <v>0</v>
+      </c>
+      <c r="D354" t="inlineStr">
         <is>
           <t>eCommerce Department</t>
         </is>
       </c>
-      <c r="E340" t="inlineStr">
+      <c r="E354" t="inlineStr">
         <is>
           <t>Director of ECommerce</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Tysen</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Ellis</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>IT Team</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Dobson</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Marketing Coordinator</t>
         </is>
       </c>
     </row>
